--- a/src/data_testlet.xlsx
+++ b/src/data_testlet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-中南---北师大\2-北师大\2_毕业论文\Automated_Test_Assembly\ATA_Item_Bank_Thesis\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D443B6-0ADB-4774-8300-9DE9BD7C66E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBD5065-0FC2-4659-940B-2FA2C6D34CC8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$EX$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$EY$47</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -917,10 +917,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:EY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG3" sqref="AG3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1133,7 +1134,7 @@
         <v>3.0000000000000102</v>
       </c>
     </row>
-    <row r="2" spans="1:155" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:155" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -2067,7 +2068,7 @@
         <v>0.101799356490353</v>
       </c>
     </row>
-    <row r="4" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -2534,7 +2535,7 @@
         <v>0.202362345396391</v>
       </c>
     </row>
-    <row r="5" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>0.13406742366281399</v>
       </c>
     </row>
-    <row r="6" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>0.15390062837254501</v>
       </c>
     </row>
-    <row r="7" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:155" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>27</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>0.19699561424008</v>
       </c>
     </row>
-    <row r="9" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>0.111744592377513</v>
       </c>
     </row>
-    <row r="10" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>0.20248365356291101</v>
       </c>
     </row>
-    <row r="11" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -5803,7 +5804,7 @@
         <v>6.0246079358180198E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>0.245264627532116</v>
       </c>
     </row>
-    <row r="13" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -6737,7 +6738,7 @@
         <v>6.06890193228386E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -7204,7 +7205,7 @@
         <v>0.90693088806493904</v>
       </c>
     </row>
-    <row r="15" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>5.7001342593243798E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>4.07088392885551E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
@@ -8605,7 +8606,7 @@
         <v>1.0169924538295599E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>38</v>
       </c>
@@ -9072,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>5.4225113437274701E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -10006,7 +10007,7 @@
         <v>4.3320093456853297E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -10473,7 +10474,7 @@
         <v>2.20122868154777E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>5.0462752145860497E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -11407,7 +11408,7 @@
         <v>2.6383393570655299E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
@@ -12341,7 +12342,7 @@
         <v>0.349720829145171</v>
       </c>
     </row>
-    <row r="26" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
@@ -12808,7 +12809,7 @@
         <v>0.133276023202578</v>
       </c>
     </row>
-    <row r="27" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
@@ -13275,7 +13276,7 @@
         <v>0.12452919764607399</v>
       </c>
     </row>
-    <row r="28" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>48</v>
       </c>
@@ -13742,7 +13743,7 @@
         <v>0.152399344370231</v>
       </c>
     </row>
-    <row r="29" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
@@ -14209,7 +14210,7 @@
         <v>7.9619623226452399E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>50</v>
       </c>
@@ -14676,7 +14677,7 @@
         <v>2.42116384136212E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>51</v>
       </c>
@@ -15143,7 +15144,7 @@
         <v>0.16409131505119701</v>
       </c>
     </row>
-    <row r="32" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>128</v>
       </c>
@@ -15610,7 +15611,7 @@
         <v>0.25260820204576001</v>
       </c>
     </row>
-    <row r="33" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>129</v>
       </c>
@@ -16077,7 +16078,7 @@
         <v>6.45956120906028E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>130</v>
       </c>
@@ -16544,7 +16545,7 @@
         <v>0.180312240833535</v>
       </c>
     </row>
-    <row r="35" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>131</v>
       </c>
@@ -17011,7 +17012,7 @@
         <v>0.16148826296044</v>
       </c>
     </row>
-    <row r="36" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>132</v>
       </c>
@@ -17478,7 +17479,7 @@
         <v>0.23827839685590599</v>
       </c>
     </row>
-    <row r="37" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>133</v>
       </c>
@@ -17945,7 +17946,7 @@
         <v>2.8908077746925599E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>134</v>
       </c>
@@ -18412,7 +18413,7 @@
         <v>1.61667748713238E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>135</v>
       </c>
@@ -18879,7 +18880,7 @@
         <v>0.52896746412569395</v>
       </c>
     </row>
-    <row r="40" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>52</v>
       </c>
@@ -19346,7 +19347,7 @@
         <v>3.8449732747696898E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -19813,7 +19814,7 @@
         <v>0.428146797340824</v>
       </c>
     </row>
-    <row r="42" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>54</v>
       </c>
@@ -20280,7 +20281,7 @@
         <v>7.8959059574782095E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>55</v>
       </c>
@@ -20747,7 +20748,7 @@
         <v>3.5408392717194502E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>56</v>
       </c>
@@ -21214,7 +21215,7 @@
         <v>6.1178153934874101E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>57</v>
       </c>
@@ -21681,7 +21682,7 @@
         <v>0.19430811765002101</v>
       </c>
     </row>
-    <row r="46" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>58</v>
       </c>
@@ -22148,7 +22149,7 @@
         <v>4.4422832568828299E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:155" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:155" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>59</v>
       </c>
@@ -22616,6 +22617,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:EY47" xr:uid="{C77A4820-78DD-4BF1-BAF6-2C2643CA9D97}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="S1_1"/>
+        <filter val="S1_3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
